--- a/src/cloud/tests/HCM/TimeAndAbsence_Argentina/AbseneceEntryITC_Test.xlsx
+++ b/src/cloud/tests/HCM/TimeAndAbsence_Argentina/AbseneceEntryITC_Test.xlsx
@@ -1,19 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vramasubramanian\OneDrive - IT Convergence\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\HCM\TimeAndAbsence_Argentina\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C8378-DEB3-408E-93D4-6A8C7E9CD2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13155" windowHeight="2520"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS01" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -67,19 +82,19 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Leave Without Pay</t>
-  </si>
-  <si>
     <t>T3Leave</t>
   </si>
   <si>
     <t>{HCM_Arg_username}</t>
+  </si>
+  <si>
+    <t>ARG Leave Without Pay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,18 +507,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,25 +587,25 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>05/07/21</v>
+        <v>06/29/21</v>
       </c>
       <c r="K3" s="8" t="str">
         <f ca="1">TEXT(TODAY(), "mm/dd/yy")</f>
-        <v>05/07/21</v>
+        <v>06/29/21</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -607,7 +622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
